--- a/currencyconvertion/exchangeRateOutputFile.xlsx
+++ b/currencyconvertion/exchangeRateOutputFile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="29">
   <si>
     <t>BASE CURRENCY</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>2023-02-20 00:04:19.914</t>
+  </si>
+  <si>
+    <t>2023-02-20 09:25:27.011</t>
+  </si>
+  <si>
+    <t>2023-02-20 09:25:28.779</t>
   </si>
 </sst>
 </file>
@@ -135,10 +141,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -540,6 +551,76 @@
         <v>26</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01259899977594614</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007368000224232674</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0270789861679077</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7676659822463989</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2722490131855011</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
